--- a/src/dataEngine/DataEngine.xlsx
+++ b/src/dataEngine/DataEngine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSteps" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Settings" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Test Cases" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
@@ -23,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
-  <si>
-    <t>Test Case ID </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+  <si>
+    <t>Test Case ID</t>
   </si>
   <si>
     <t>TS_ID</t>
@@ -34,7 +34,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>TestCaseDataPRovider </t>
+    <t>TestCaseDataPRovider</t>
   </si>
   <si>
     <t>UserName</t>
@@ -52,7 +52,7 @@
     <t>Open the Browser</t>
   </si>
   <si>
-    <t>With Correct pasword </t>
+    <t>With Correct pasword</t>
   </si>
   <si>
     <t>daniel@yopmail.com</t>
@@ -61,25 +61,25 @@
     <t>TS_002</t>
   </si>
   <si>
-    <t>Navigate to the Website </t>
+    <t>Navigate to the Website</t>
   </si>
   <si>
     <t>TS_003</t>
   </si>
   <si>
-    <t>Click on My Account Button On the top right location </t>
+    <t>Click on My Account Button On the top right location</t>
   </si>
   <si>
     <t>TS_004</t>
   </si>
   <si>
-    <t>Enter the username in the Username field </t>
+    <t>Enter the username in the Username field</t>
   </si>
   <si>
     <t>TS_005</t>
   </si>
   <si>
-    <t>Enter the password in the Password field </t>
+    <t>Enter the password in the Password field</t>
   </si>
   <si>
     <t>TS_006</t>
@@ -91,124 +91,46 @@
     <t>TS_007</t>
   </si>
   <si>
-    <t>Wait for some time </t>
+    <t>Wait for some time</t>
   </si>
   <si>
     <t>TS_008</t>
   </si>
   <si>
-    <t>Click on LogOut Button </t>
+    <t>Click on LogOut Button</t>
   </si>
   <si>
     <t>TS_009</t>
   </si>
   <si>
-    <t>Close the browser </t>
+    <t>Close the browser</t>
   </si>
   <si>
     <t>Ts_010</t>
   </si>
   <si>
-    <t>Open the browser </t>
+    <t>Open the browser</t>
   </si>
   <si>
     <t>Navigate to website</t>
   </si>
   <si>
-    <t>Click on product </t>
-  </si>
-  <si>
-    <t>Enetr the product name </t>
+    <t>Click on product</t>
+  </si>
+  <si>
+    <t>Enetr the product name</t>
   </si>
   <si>
     <t>click on search</t>
   </si>
   <si>
-    <t>Click on buy </t>
-  </si>
-  <si>
-    <t>input the username </t>
-  </si>
-  <si>
-    <t>input password </t>
-  </si>
-  <si>
-    <t>Page Name</t>
-  </si>
-  <si>
-    <t>Home_Page Objects</t>
-  </si>
-  <si>
-    <t>Login_Page Object</t>
-  </si>
-  <si>
-    <t>Action Keywords </t>
-  </si>
-  <si>
-    <t>Home_Page</t>
-  </si>
-  <si>
-    <t>btn_MyAccount</t>
-  </si>
-  <si>
-    <t>txtbx_UserName</t>
-  </si>
-  <si>
-    <t>openBrowser</t>
-  </si>
-  <si>
-    <t>Login_Page</t>
-  </si>
-  <si>
-    <t>btn_LogOut</t>
-  </si>
-  <si>
-    <t>txtbx_Password</t>
-  </si>
-  <si>
-    <t>navigate</t>
-  </si>
-  <si>
-    <t>btn_LogIn</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>waitFor</t>
-  </si>
-  <si>
-    <t>closeBrowser</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Runmode</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>login in the online Store </t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Login_02</t>
-  </si>
-  <si>
-    <t>Buy_03</t>
-  </si>
-  <si>
-    <t>Buying product </t>
+    <t>Click on buy</t>
+  </si>
+  <si>
+    <t>input the username</t>
+  </si>
+  <si>
+    <t>input password</t>
   </si>
 </sst>
 </file>
@@ -332,8 +254,8 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D3" activeCellId="0" pane="topLeft" sqref="D3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D3" activeCellId="0" pane="topLeft" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -371,16 +293,16 @@
       <c r="K1" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -396,13 +318,13 @@
       <c r="M2" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="4"/>
@@ -412,13 +334,13 @@
       <c r="M3" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="4"/>
@@ -428,13 +350,13 @@
       <c r="M4" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="4"/>
@@ -444,13 +366,13 @@
       <c r="M5" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="4"/>
@@ -460,13 +382,13 @@
       <c r="M6" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="4"/>
@@ -476,13 +398,13 @@
       <c r="M7" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="4"/>
@@ -492,13 +414,13 @@
       <c r="M8" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="4"/>
@@ -508,13 +430,13 @@
       <c r="M9" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="4"/>
@@ -531,13 +453,13 @@
       <c r="M11" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="4"/>
@@ -547,7 +469,7 @@
       <c r="M12" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="13">
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="4"/>
@@ -557,7 +479,7 @@
       <c r="M13" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="14">
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="4"/>
@@ -567,32 +489,32 @@
       <c r="M14" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="15">
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="16">
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="17">
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -603,7 +525,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E18:E20" type="list">
-      <formula1>INDIRECT(#REF!)</formula1>
+      <formula1>INDIRECT(#ref!)</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -622,82 +544,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
+      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.05"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="18.5765306122449"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1" s="1">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="C4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="D5" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="D6" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="D7" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="1" s="1"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -714,13 +572,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D4" activeCellId="0" pane="topLeft" sqref="D4"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D4" activeCellId="0" pane="topLeft" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.05"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1377551020408"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4285714285714"/>
@@ -728,59 +586,7 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1" s="1">
-      <c r="A1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="1" s="1"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/dataEngine/DataEngine.xlsx
+++ b/src/dataEngine/DataEngine.xlsx
@@ -5,25 +5,23 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Settings" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Test Cases" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Action_Keywords" vbProcedure="false">Settings!$D$2:$D$11</definedName>
-    <definedName function="false" hidden="false" name="Home_Page" vbProcedure="false">Settings!$B$2:$B$11</definedName>
-    <definedName function="false" hidden="false" name="Login_Page" vbProcedure="false">Settings!$C$2:$C$11</definedName>
-    <definedName function="false" hidden="false" name="Page_Name" vbProcedure="false">Settings!$A$2:$A$11</definedName>
+    <definedName function="false" hidden="false" name="Action_Keywords" vbProcedure="false">#ref!!$d$2:$d$11</definedName>
+    <definedName function="false" hidden="false" name="Home_Page" vbProcedure="false">#ref!!$b$2:$b$11</definedName>
+    <definedName function="false" hidden="false" name="Login_Page" vbProcedure="false">#ref!!$c$2:$c$11</definedName>
+    <definedName function="false" hidden="false" name="Page_Name" vbProcedure="false">#ref!!$a$2:$a$11</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -64,28 +62,43 @@
     <t>Navigate to the Website</t>
   </si>
   <si>
+    <t>user name</t>
+  </si>
+  <si>
     <t>TS_003</t>
   </si>
   <si>
     <t>Click on My Account Button On the top right location</t>
   </si>
   <si>
+    <t>fjhjf</t>
+  </si>
+  <si>
     <t>TS_004</t>
   </si>
   <si>
     <t>Enter the username in the Username field</t>
   </si>
   <si>
+    <t>cnjzc</t>
+  </si>
+  <si>
     <t>TS_005</t>
   </si>
   <si>
     <t>Enter the password in the Password field</t>
   </si>
   <si>
+    <t>xfbj</t>
+  </si>
+  <si>
     <t>TS_006</t>
   </si>
   <si>
     <t>Click on login button</t>
+  </si>
+  <si>
+    <t>vcgh</t>
   </si>
   <si>
     <t>TS_007</t>
@@ -254,8 +267,8 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D3" activeCellId="0" pane="topLeft" sqref="1:1048576"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F7" activeCellId="0" pane="topLeft" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -327,6 +340,12 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>123445</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -338,10 +357,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>13442</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -354,10 +379,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>23456</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -365,15 +396,21 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="6">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>64664</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -381,15 +418,21 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="7">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>456789</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -402,10 +445,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -418,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -434,10 +477,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -457,10 +500,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -470,7 +513,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="13">
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -480,7 +523,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="14">
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -490,32 +533,32 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="15">
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="16">
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="17">
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -537,63 +580,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="1:1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.05"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="18.5765306122449"/>
-  </cols>
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="1" s="1"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D4" activeCellId="0" pane="topLeft" sqref="1:1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.05"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
-  </cols>
-  <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="1" s="1"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/src/dataEngine/DataEngine.xlsx
+++ b/src/dataEngine/DataEngine.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkatesh.kv\git\RFTTWithPAgeobjectFactory\src\dataEngine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="false" name="Action_Keywords" vbProcedure="false">#ref!!$d$2:$d$11</definedName>
-    <definedName function="false" hidden="false" name="Home_Page" vbProcedure="false">#ref!!$b$2:$b$11</definedName>
-    <definedName function="false" hidden="false" name="Login_Page" vbProcedure="false">#ref!!$c$2:$c$11</definedName>
-    <definedName function="false" hidden="false" name="Page_Name" vbProcedure="false">#ref!!$a$2:$a$11</definedName>
-  </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -149,11 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -162,22 +158,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -194,7 +175,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -202,87 +183,313 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F7" activeCellId="0" pane="topLeft" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="12.7109375"/>
+    <col min="2" max="2" width="8.7109375"/>
+    <col min="3" max="3" width="64"/>
+    <col min="4" max="4" width="24"/>
+    <col min="5" max="5" width="21.42578125"/>
+    <col min="6" max="7" width="18.28515625"/>
+    <col min="8" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1" s="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -305,7 +512,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -321,7 +528,7 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>12345678</v>
       </c>
       <c r="I2" s="4"/>
@@ -330,7 +537,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -343,7 +550,7 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>123445</v>
       </c>
       <c r="I3" s="4"/>
@@ -352,7 +559,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -365,7 +572,7 @@
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>13442</v>
       </c>
       <c r="I4" s="4"/>
@@ -374,7 +581,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -384,10 +591,10 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>23456</v>
       </c>
       <c r="I5" s="4"/>
@@ -396,7 +603,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -406,10 +613,10 @@
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>64664</v>
       </c>
       <c r="I6" s="4"/>
@@ -418,7 +625,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -428,10 +635,10 @@
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>456789</v>
       </c>
       <c r="I7" s="4"/>
@@ -440,7 +647,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -456,7 +663,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -472,7 +679,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -488,14 +695,14 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -511,7 +718,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
@@ -521,7 +728,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
@@ -531,53 +738,48 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="17">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D18:D20" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D20">
       <formula1>Page_Name</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E18:E20" type="list">
-      <formula1>INDIRECT(#ref!)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E20">
+      <formula1>INDIRECT(#REF!)</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/src/dataEngine/DataEngine.xlsx
+++ b/src/dataEngine/DataEngine.xlsx
@@ -5,31 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkatesh.kv\git\RFTTWithPAgeobjectFactory\src\dataEngine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratyush\git\RFTTWithPAgeobjectFactory\src\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="4485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>TS_ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>TestCaseDataPRovider</t>
   </si>
@@ -40,116 +31,20 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Login_01</t>
-  </si>
-  <si>
-    <t>TS_001</t>
-  </si>
-  <si>
-    <t>Open the Browser</t>
-  </si>
-  <si>
     <t>With Correct pasword</t>
   </si>
   <si>
     <t>daniel@yopmail.com</t>
   </si>
   <si>
-    <t>TS_002</t>
-  </si>
-  <si>
-    <t>Navigate to the Website</t>
-  </si>
-  <si>
-    <t>user name</t>
-  </si>
-  <si>
-    <t>TS_003</t>
-  </si>
-  <si>
-    <t>Click on My Account Button On the top right location</t>
-  </si>
-  <si>
-    <t>fjhjf</t>
-  </si>
-  <si>
-    <t>TS_004</t>
-  </si>
-  <si>
-    <t>Enter the username in the Username field</t>
-  </si>
-  <si>
-    <t>cnjzc</t>
-  </si>
-  <si>
-    <t>TS_005</t>
-  </si>
-  <si>
-    <t>Enter the password in the Password field</t>
-  </si>
-  <si>
-    <t>xfbj</t>
-  </si>
-  <si>
-    <t>TS_006</t>
-  </si>
-  <si>
-    <t>Click on login button</t>
-  </si>
-  <si>
-    <t>vcgh</t>
-  </si>
-  <si>
-    <t>TS_007</t>
-  </si>
-  <si>
-    <t>Wait for some time</t>
-  </si>
-  <si>
-    <t>TS_008</t>
-  </si>
-  <si>
-    <t>Click on LogOut Button</t>
-  </si>
-  <si>
-    <t>TS_009</t>
-  </si>
-  <si>
-    <t>Close the browser</t>
-  </si>
-  <si>
-    <t>Ts_010</t>
-  </si>
-  <si>
-    <t>Open the browser</t>
-  </si>
-  <si>
-    <t>Navigate to website</t>
-  </si>
-  <si>
-    <t>Click on product</t>
-  </si>
-  <si>
-    <t>Enetr the product name</t>
-  </si>
-  <si>
-    <t>click on search</t>
-  </si>
-  <si>
-    <t>Click on buy</t>
-  </si>
-  <si>
-    <t>input the username</t>
-  </si>
-  <si>
-    <t>input password</t>
+    <t>12345678</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,6 +56,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -183,17 +86,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,37 +406,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12345678</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -538,21 +427,9 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3">
-        <v>123445</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -560,21 +437,9 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3">
-        <v>13442</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -582,21 +447,7 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>23456</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -604,21 +455,6 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>64664</v>
-      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -626,21 +462,6 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>456789</v>
-      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -648,15 +469,9 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -664,15 +479,9 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -680,15 +489,9 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -703,15 +506,9 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -719,9 +516,7 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -729,9 +524,7 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -739,34 +532,22 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -779,7 +560,50 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>